--- a/Documents/策划/角色怪物动作设定.xlsx
+++ b/Documents/策划/角色怪物动作设定.xlsx
@@ -1090,11 +1090,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2659,7 +2659,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>210</v>
       </c>
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>211</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>212</v>
       </c>
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2697,7 +2697,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>210</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>211</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>213</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2735,7 +2735,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>210</v>
       </c>
@@ -2744,7 +2744,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>217</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>213</v>
       </c>
@@ -2762,7 +2762,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2773,7 +2773,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>210</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>211</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>213</v>
       </c>
@@ -2816,7 +2816,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2871,44 +2871,44 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2953,44 +2953,44 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:13" ht="132" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>216</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="198" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="198" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>218</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>218</v>
       </c>
@@ -3531,7 +3531,7 @@
   <autoFilter ref="A1:M17">
     <filterColumn colId="1">
       <filters>
-        <filter val="战士"/>
+        <filter val="射手"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documents/策划/角色怪物动作设定.xlsx
+++ b/Documents/策划/角色怪物动作设定.xlsx
@@ -2816,7 +2816,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2871,7 +2871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="132" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>207</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>207</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>216</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="198" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>218</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>218</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>219</v>
       </c>
@@ -3529,9 +3529,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M17">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="射手"/>
+        <filter val="懒惰"/>
+        <filter val="贪婪"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documents/策划/角色怪物动作设定.xlsx
+++ b/Documents/策划/角色怪物动作设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -2627,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2816,8 +2816,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
